--- a/SQL/Assignment4/Assignment_4.xlsx
+++ b/SQL/Assignment4/Assignment_4.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/haininhhoang/Documents/SourceTree/T1807E/SQL/Assignment4/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9BE9361-3AF7-494D-B752-BFEC3E1D5ABF}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{774E725F-F837-8A4B-BCA5-505B72ADAF3D}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="17340" yWindow="460" windowWidth="16260" windowHeight="20540" xr2:uid="{75A4EACC-76EA-C442-8973-6C10B0FA26FB}"/>
+    <workbookView xWindow="21540" yWindow="460" windowWidth="12060" windowHeight="20540" xr2:uid="{75A4EACC-76EA-C442-8973-6C10B0FA26FB}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="40">
   <si>
     <t>Assignment4</t>
   </si>
@@ -67,12 +67,93 @@
   </si>
   <si>
     <t>employee_id</t>
+  </si>
+  <si>
+    <t>product_name</t>
+  </si>
+  <si>
+    <t>id_type</t>
+  </si>
+  <si>
+    <t>type_name</t>
+  </si>
+  <si>
+    <t>type_id</t>
+  </si>
+  <si>
+    <t>n</t>
+  </si>
+  <si>
+    <t>Nguyen Van An</t>
+  </si>
+  <si>
+    <t>Ninh Hoang Hai</t>
+  </si>
+  <si>
+    <t>Do Van A</t>
+  </si>
+  <si>
+    <t>Nguyen Van B</t>
+  </si>
+  <si>
+    <t>Z37E</t>
+  </si>
+  <si>
+    <t>P87</t>
+  </si>
+  <si>
+    <t>H65</t>
+  </si>
+  <si>
+    <t>H05</t>
+  </si>
+  <si>
+    <t>H32</t>
+  </si>
+  <si>
+    <t>Z37 111111</t>
+  </si>
+  <si>
+    <t>P87 432423</t>
+  </si>
+  <si>
+    <t>H65 095043</t>
+  </si>
+  <si>
+    <t>H05 058842</t>
+  </si>
+  <si>
+    <t>H32 345839</t>
+  </si>
+  <si>
+    <t>Z37E 11112</t>
+  </si>
+  <si>
+    <t>May tinh xach tay Z37</t>
+  </si>
+  <si>
+    <t>Dien thoai P87</t>
+  </si>
+  <si>
+    <t>Tablet H65</t>
+  </si>
+  <si>
+    <t>Dien thoai H05</t>
+  </si>
+  <si>
+    <t>May tinh xach tay H32</t>
+  </si>
+  <si>
+    <t>Main Z37E</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd"/>
+  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -110,9 +191,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -427,24 +510,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B89AF21E-DE93-3846-8FFC-90B28F0FD520}">
-  <dimension ref="A1:C15"/>
+  <dimension ref="A1:E45"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="174" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="174" workbookViewId="0">
+      <selection activeCell="A40" sqref="A40:E45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="14.83203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="14.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="19.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -452,7 +536,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -460,7 +544,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -468,7 +552,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>11</v>
       </c>
@@ -476,50 +560,360 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E14" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C8" t="s">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>13</v>
+      </c>
+      <c r="C15" t="s">
+        <v>5</v>
+      </c>
+      <c r="E15" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C9" t="s">
+      <c r="C16" t="s">
+        <v>6</v>
+      </c>
+      <c r="E16" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A11" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A12" s="1" t="s">
+      <c r="C17" t="s">
+        <v>7</v>
+      </c>
+      <c r="E17" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C18" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C19" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A21" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="B21" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>1</v>
+      </c>
+      <c r="B22" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A23" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B23" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>1</v>
+      </c>
+      <c r="B24" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A26" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B26" t="s">
+        <v>9</v>
+      </c>
+      <c r="C26" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>1</v>
+      </c>
+      <c r="B27" t="s">
+        <v>19</v>
+      </c>
+      <c r="C27">
+        <v>987688</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>2</v>
+      </c>
+      <c r="B28" t="s">
+        <v>20</v>
+      </c>
+      <c r="C28">
+        <v>122334</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>3</v>
+      </c>
+      <c r="B29" t="s">
+        <v>21</v>
+      </c>
+      <c r="C29">
+        <v>543548</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>4</v>
+      </c>
+      <c r="B30" t="s">
+        <v>22</v>
+      </c>
+      <c r="C30">
+        <v>960597</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A32" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B32" t="s">
+        <v>16</v>
+      </c>
+      <c r="C32" t="s">
         <v>13</v>
       </c>
-      <c r="C13" t="s">
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A33" s="2">
+        <v>1</v>
+      </c>
+      <c r="B33" t="s">
+        <v>23</v>
+      </c>
+      <c r="C33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A34">
+        <v>2</v>
+      </c>
+      <c r="B34" t="s">
+        <v>24</v>
+      </c>
+      <c r="C34">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A35">
+        <v>3</v>
+      </c>
+      <c r="B35" t="s">
+        <v>25</v>
+      </c>
+      <c r="C35">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A36">
+        <v>4</v>
+      </c>
+      <c r="B36" t="s">
+        <v>26</v>
+      </c>
+      <c r="C36">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A37">
         <v>5</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>10</v>
+      <c r="B37" t="s">
+        <v>27</v>
+      </c>
+      <c r="C37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A39" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B39" t="s">
+        <v>6</v>
+      </c>
+      <c r="C39" t="s">
+        <v>7</v>
+      </c>
+      <c r="D39" t="s">
+        <v>14</v>
+      </c>
+      <c r="E39" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A40">
+        <v>1</v>
+      </c>
+      <c r="B40" t="s">
+        <v>28</v>
+      </c>
+      <c r="C40" s="3">
+        <v>40159</v>
+      </c>
+      <c r="D40" t="s">
+        <v>34</v>
+      </c>
+      <c r="E40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A41">
+        <v>2</v>
+      </c>
+      <c r="B41" t="s">
+        <v>29</v>
+      </c>
+      <c r="C41" s="3">
+        <v>40179</v>
+      </c>
+      <c r="D41" t="s">
+        <v>35</v>
+      </c>
+      <c r="E41">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A42">
+        <v>3</v>
+      </c>
+      <c r="B42" t="s">
+        <v>30</v>
+      </c>
+      <c r="C42" s="3">
+        <v>37747</v>
+      </c>
+      <c r="D42" t="s">
+        <v>36</v>
+      </c>
+      <c r="E42">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A43">
+        <v>4</v>
+      </c>
+      <c r="B43" t="s">
+        <v>31</v>
+      </c>
+      <c r="C43" s="3">
+        <v>43289</v>
+      </c>
+      <c r="D43" t="s">
+        <v>37</v>
+      </c>
+      <c r="E43">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A44">
+        <v>5</v>
+      </c>
+      <c r="B44" t="s">
+        <v>32</v>
+      </c>
+      <c r="C44" s="3">
+        <v>41769</v>
+      </c>
+      <c r="D44" t="s">
+        <v>38</v>
+      </c>
+      <c r="E44">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A45">
+        <v>6</v>
+      </c>
+      <c r="B45" t="s">
+        <v>33</v>
+      </c>
+      <c r="C45" s="3">
+        <v>41435</v>
+      </c>
+      <c r="D45" t="s">
+        <v>39</v>
+      </c>
+      <c r="E45">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
